--- a/collatzProof.xlsx
+++ b/collatzProof.xlsx
@@ -14,28 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>以下のような、コラッツ遷移と同等のセルオートマトンを考える。</t>
   </si>
   <si>
-    <t>2. 次ステップに(3x + 1) / 2 を配置する。</t>
-  </si>
-  <si>
     <t>3. 次ステップのx は、左端の1 から右端の1 までとする。</t>
   </si>
   <si>
     <t>これを「コラッツパターン」と名付ける。</t>
-  </si>
-  <si>
-    <t>1. 初期値x0を2進数（左が下位）で配置する。</t>
-    <rPh sb="13" eb="14">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>x_0 = 319 を例にとったものを以下に示す。</t>
@@ -84,25 +71,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>nであるx_sが、コラッツ操作でx_sより小さくなる時、smaller nが成り立つ、とする。</t>
-    <rPh sb="13" eb="15">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【補題1-2】</t>
     <rPh sb="1" eb="3">
       <t>ホダイ</t>
@@ -110,32 +78,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>左端（最下位）からの連続するビット1の個数をnとおく。n&gt;=2の時を考える。</t>
-    <rPh sb="0" eb="2">
-      <t>サタン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>サイカイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>レンゾク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コスウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>￢smaller (n+1)ならば、￢smaller nである。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【補題1-3】</t>
     <rPh sb="1" eb="3">
       <t>ホダイ</t>
@@ -143,10 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（￢smaller (n+1)ならば、￢smaller n）ならば、（smaller nならばsmaller (n+1)）である。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【補題2】</t>
     <rPh sb="1" eb="3">
       <t>ホダイ</t>
@@ -178,25 +116,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>n+1,x_sがコラッツ操作で小さくならない時、1ステップ進めると、n,x_(s+1)も小さくならない。</t>
-    <rPh sb="12" eb="14">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>チイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【補題1-3】【補題2】【補題3】を合わせて、最終的な証明が得られる。</t>
     <rPh sb="1" eb="3">
       <t>ホダイ</t>
@@ -235,6 +154,148 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 初期値x_0を2進数（左が下位）で配置する。</t>
+    <rPh sb="14" eb="15">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. 次ステップに(3x + 1) / 2 を配置する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nである全てのx_sが、コラッツ操作でx_sより小さくなる時、smaller nが成り立つ、とする。</t>
+    <rPh sb="4" eb="5">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左端（最下位）からの連続するビット1の個数をnとおく。</t>
+    <rPh sb="0" eb="2">
+      <t>サタン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サイカイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この定理の元で、最小反例cがあると仮定すると、</t>
+    <rPh sb="2" eb="4">
+      <t>テイリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンレイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての値はコラッツ操作で小さくなるので、</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>￢smaller(k+2)ならば、￢smaller(k+1)である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>k+2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>あるx_sがコラッツ操作で小さくならない時、1ステップ進めると、k+1,x_(s+1)も小さくならない。</t>
+    </r>
+    <rPh sb="14" eb="16">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（￢smaller(k+2)ならば、￢smaller(k+1)）ならば、（smaller(k+1)ならばsmaller(k+2)）である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c→...→c'&lt;cなるc'も反例であるが、これはcの最小性に反する。</t>
+    <rPh sb="15" eb="17">
+      <t>ハンレイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ハン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -243,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +346,20 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -317,7 +392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,6 +409,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,7 +712,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:AA62"/>
+  <dimension ref="B3:AA68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -647,32 +728,32 @@
     </row>
     <row r="4" spans="2:27">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:27">
       <c r="B5" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:27">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:27">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:27">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:27">
       <c r="AA9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:27">
@@ -1315,20 +1396,20 @@
     </row>
     <row r="31" spans="2:27">
       <c r="B31" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="2:27">
       <c r="B32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="2:27">
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:27">
@@ -1350,7 +1431,7 @@
     </row>
     <row r="35" spans="2:27">
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -1389,7 +1470,7 @@
     </row>
     <row r="37" spans="2:27">
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -1422,72 +1503,87 @@
     </row>
     <row r="39" spans="2:27">
       <c r="C39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="2:27">
-      <c r="B42" t="s">
-        <v>11</v>
+      <c r="B42" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="2:27">
       <c r="B43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="2:27">
       <c r="B44" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="2:27">
-      <c r="C45" t="s">
-        <v>21</v>
+      <c r="C45" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="2:27">
       <c r="B48" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/collatzProof.xlsx
+++ b/collatzProof.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>以下のような、コラッツ遷移と同等のセルオートマトンを考える。</t>
   </si>
@@ -112,48 +112,6 @@
     <t>n=1の時、つまり4x+1ならば、smaller 1である。</t>
     <rPh sb="4" eb="5">
       <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【補題1-3】【補題2】【補題3】を合わせて、最終的な証明が得られる。</t>
-    <rPh sb="1" eb="3">
-      <t>ホダイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホダイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ホダイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>サイシュウテキ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ショウメイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>エ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【定理】</t>
-    <rPh sb="1" eb="3">
-      <t>テイリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全てのnに対して、smaller nである。</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>タイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -299,12 +257,120 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>コラッツパターンでループや無限大があれば、コラッツパターン2でもある</t>
+    <rPh sb="13" eb="16">
+      <t>ムゲンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→コラッツパターン2でループや無限大がなければ、コラッツパターンでもない</t>
+    <rPh sb="15" eb="18">
+      <t>ムゲンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらに、2以上のnに対して、n-1個の1を左端に追加する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これを「コラッツパターン2」と名付ける。</t>
+    <rPh sb="15" eb="17">
+      <t>ナヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【定理1】</t>
+    <rPh sb="1" eb="3">
+      <t>テイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コラッツパターン2において、全てのnに対して、smaller nである。</t>
+    <rPh sb="14" eb="15">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【定理2】</t>
+    <rPh sb="1" eb="3">
+      <t>テイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【補題1-3】【補題2】【補題3】を合わせて、次の定理が得られる。</t>
+    <rPh sb="1" eb="3">
+      <t>ホダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホダイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホダイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイリ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コラッツパターン2ではnの大小=x_sの大小なので、</t>
+    <rPh sb="13" eb="15">
+      <t>ダイショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ダイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>といった事は起こらない。</t>
+    <rPh sb="4" eb="5">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x_s=3&gt;4ではない　ならば　x_(s+1)=5&gt;4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コラッツパターンにおいて、ループや無限大に行くものはない。</t>
+    <rPh sb="17" eb="20">
+      <t>ムゲンダイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +426,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -369,7 +451,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -386,13 +468,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -415,6 +534,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -712,51 +846,52 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:AA68"/>
+  <dimension ref="B3:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27">
+    <row r="3" spans="2:32">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:27">
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27">
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27">
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27">
+    <row r="4" spans="2:32">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
+    <row r="8" spans="2:32">
       <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
-      <c r="AA9" s="1" t="s">
+    <row r="9" spans="2:32">
+      <c r="AA9" s="1"/>
+      <c r="AF9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:27">
+    <row r="10" spans="2:32">
       <c r="B10">
         <v>319</v>
       </c>
@@ -787,11 +922,12 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AA10" s="1"/>
+      <c r="AF10" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
+    <row r="11" spans="2:32">
       <c r="B11">
         <v>479</v>
       </c>
@@ -822,11 +958,12 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AA11" s="1"/>
+      <c r="AF11" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:27">
+    <row r="12" spans="2:32">
       <c r="B12">
         <v>719</v>
       </c>
@@ -860,11 +997,12 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AA12" s="1"/>
+      <c r="AF12" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:27">
+    <row r="13" spans="2:32">
       <c r="B13">
         <v>1079</v>
       </c>
@@ -901,11 +1039,12 @@
       <c r="M13">
         <v>1</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AA13" s="1"/>
+      <c r="AF13" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:27">
+    <row r="14" spans="2:32">
       <c r="B14">
         <v>1619</v>
       </c>
@@ -942,11 +1081,12 @@
       <c r="M14">
         <v>1</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AA14" s="1"/>
+      <c r="AF14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:27">
+    <row r="15" spans="2:32">
       <c r="B15">
         <v>2429</v>
       </c>
@@ -986,11 +1126,12 @@
       <c r="N15">
         <v>1</v>
       </c>
-      <c r="AA15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:27">
+      <c r="AA15" s="1"/>
+      <c r="AF15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32">
       <c r="B16">
         <v>911</v>
       </c>
@@ -1024,11 +1165,12 @@
       <c r="N16">
         <v>1</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AA16" s="1"/>
+      <c r="AF16" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:27">
+    <row r="17" spans="2:32">
       <c r="B17">
         <v>1367</v>
       </c>
@@ -1065,11 +1207,12 @@
       <c r="O17">
         <v>1</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AA17" s="1"/>
+      <c r="AF17" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:27">
+    <row r="18" spans="2:32">
       <c r="B18">
         <v>2051</v>
       </c>
@@ -1109,11 +1252,12 @@
       <c r="P18">
         <v>1</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AA18" s="1"/>
+      <c r="AF18" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:27">
+    <row r="19" spans="2:32">
       <c r="B19">
         <v>3077</v>
       </c>
@@ -1153,11 +1297,12 @@
       <c r="P19">
         <v>1</v>
       </c>
-      <c r="AA19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27">
+      <c r="AA19" s="1"/>
+      <c r="AF19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32">
       <c r="B20">
         <v>577</v>
       </c>
@@ -1191,11 +1336,12 @@
       <c r="Q20">
         <v>1</v>
       </c>
-      <c r="AA20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27">
+      <c r="AA20" s="1"/>
+      <c r="AF20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32">
       <c r="B21">
         <v>433</v>
       </c>
@@ -1226,11 +1372,12 @@
       <c r="Q21">
         <v>1</v>
       </c>
-      <c r="AA21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27">
+      <c r="AA21" s="1"/>
+      <c r="AF21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32">
       <c r="B22">
         <v>325</v>
       </c>
@@ -1261,11 +1408,12 @@
       <c r="R22">
         <v>1</v>
       </c>
-      <c r="AA22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27">
+      <c r="AA22" s="1"/>
+      <c r="AF22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32">
       <c r="B23">
         <v>61</v>
       </c>
@@ -1287,11 +1435,12 @@
       <c r="R23">
         <v>1</v>
       </c>
-      <c r="AA23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27">
+      <c r="AA23" s="1"/>
+      <c r="AF23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32">
       <c r="B24">
         <v>23</v>
       </c>
@@ -1310,11 +1459,12 @@
       <c r="S24">
         <v>1</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AA24" s="1"/>
+      <c r="AF24" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:27">
+    <row r="25" spans="2:32">
       <c r="B25">
         <v>35</v>
       </c>
@@ -1336,11 +1486,12 @@
       <c r="T25">
         <v>1</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AA25" s="1"/>
+      <c r="AF25" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:27">
+    <row r="26" spans="2:32">
       <c r="B26">
         <v>53</v>
       </c>
@@ -1362,11 +1513,12 @@
       <c r="T26">
         <v>1</v>
       </c>
-      <c r="AA26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:27">
+      <c r="AA26" s="1"/>
+      <c r="AF26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32">
       <c r="B27">
         <v>5</v>
       </c>
@@ -1379,212 +1531,1008 @@
       <c r="U27">
         <v>1</v>
       </c>
-      <c r="AA27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27">
+      <c r="AA27" s="1"/>
+      <c r="AF27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32">
       <c r="B28">
         <v>1</v>
       </c>
       <c r="V28" s="4">
         <v>1</v>
       </c>
-      <c r="AA28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:27">
+      <c r="AA28" s="1"/>
+      <c r="AF28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32">
       <c r="B31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32">
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" ht="14.25" thickBot="1">
+      <c r="AF33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32">
+      <c r="B34" s="9">
+        <f>319*32+31</f>
+        <v>10239</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1</v>
+      </c>
+      <c r="H34" s="8">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4">
+        <v>1</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32">
+      <c r="B35" s="10">
+        <f>479*16+15</f>
+        <v>7679</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8">
+        <v>1</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1</v>
+      </c>
+      <c r="H35" s="8">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1</v>
+      </c>
+      <c r="M35" s="4">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32">
+      <c r="B36" s="10">
+        <f>719*8+7</f>
+        <v>5759</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8">
+        <v>1</v>
+      </c>
+      <c r="H36" s="8">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32">
+      <c r="B37" s="10">
+        <f>1079*4+3</f>
+        <v>4319</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8">
+        <v>1</v>
+      </c>
+      <c r="H37" s="8">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+      <c r="J37" s="4">
+        <v>1</v>
+      </c>
+      <c r="K37" s="4">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32">
+      <c r="B38" s="10">
+        <f>1619*2+1</f>
+        <v>3239</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" ht="14.25" thickBot="1">
+      <c r="B39" s="11">
+        <v>2429</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32">
+      <c r="B40" s="9">
+        <f>911*8+7</f>
+        <v>7295</v>
+      </c>
+      <c r="H40" s="8">
+        <v>1</v>
+      </c>
+      <c r="I40" s="8">
+        <v>1</v>
+      </c>
+      <c r="J40" s="8">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1</v>
+      </c>
+      <c r="M40" s="4">
+        <v>1</v>
+      </c>
+      <c r="N40" s="4">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32">
+      <c r="B41" s="10">
+        <f>1367*4+1</f>
+        <v>5469</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8">
+        <v>1</v>
+      </c>
+      <c r="J41" s="8">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32">
+      <c r="B42" s="10">
+        <f>2051*2+1</f>
+        <v>4103</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8">
+        <v>1</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1</v>
+      </c>
+      <c r="L42" s="4">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" ht="14.25" thickBot="1">
+      <c r="B43" s="11">
+        <v>3077</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32">
+      <c r="B44">
+        <v>577</v>
+      </c>
+      <c r="N44" s="4">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32">
+      <c r="B45">
+        <v>433</v>
+      </c>
+      <c r="O45" s="4">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32">
+      <c r="B46">
+        <v>325</v>
+      </c>
+      <c r="P46" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" ht="14.25" thickBot="1">
+      <c r="B47">
+        <v>61</v>
+      </c>
+      <c r="S47" s="4">
+        <v>1</v>
+      </c>
+      <c r="T47" s="5">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32">
+      <c r="B48" s="9">
+        <f>23*4+1</f>
+        <v>93</v>
+      </c>
+      <c r="S48" s="8">
+        <v>1</v>
+      </c>
+      <c r="T48" s="8">
+        <v>1</v>
+      </c>
+      <c r="U48" s="4">
+        <v>1</v>
+      </c>
+      <c r="V48" s="4">
+        <v>1</v>
+      </c>
+      <c r="W48" s="4">
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:32">
+      <c r="B49" s="10">
+        <f>35*2+1</f>
+        <v>71</v>
+      </c>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8">
+        <v>1</v>
+      </c>
+      <c r="U49" s="4">
+        <v>1</v>
+      </c>
+      <c r="V49" s="4">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32" ht="14.25" thickBot="1">
+      <c r="B50" s="11">
+        <v>53</v>
+      </c>
+      <c r="U50" s="4">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:32">
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="Y51" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:32">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:32">
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:32">
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA56" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:32">
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:32">
+      <c r="C58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="2:32">
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:32">
+      <c r="C60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="2:32">
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:32">
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:27">
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27">
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA33" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27">
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="4">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4">
-        <v>1</v>
-      </c>
-      <c r="H34" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:27">
-      <c r="C35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="2:27">
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27">
-      <c r="C37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="2:27">
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="AA38" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:27">
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27">
-      <c r="B42" s="6" t="s">
+    <row r="68" spans="2:4">
+      <c r="C68" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="C69" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="12"/>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="C70" s="12"/>
+      <c r="D70" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="C71" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="12"/>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="2:27">
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27">
-      <c r="B44" t="s">
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="2:27">
-      <c r="C45" s="7" t="s">
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="2:27">
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
+    <row r="97" spans="2:3">
+      <c r="B97" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
-        <v>27</v>
-      </c>
+    <row r="100" spans="2:3">
+      <c r="B100" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="C102" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/collatzProof.xlsx
+++ b/collatzProof.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="補題0の証明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>以下のような、コラッツ遷移と同等のセルオートマトンを考える。</t>
   </si>
@@ -363,6 +364,173 @@
     <rPh sb="21" eb="22">
       <t>イ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【補題0】</t>
+    <rPh sb="1" eb="3">
+      <t>ホダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1111などの配置はコラッツパターン2には属さないが、属さない配置がコラッツパターン2の遷移で現れる事はない</t>
+    <rPh sb="7" eb="9">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>証明は次シート</t>
+    <rPh sb="0" eb="2">
+      <t>ショウメイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その上に左端に追加したビット1の個数をkとおく。</t>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サタン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コラッツパターン2には</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の配置しか存在しない。</t>
+    <rPh sb="1" eb="3">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この和は2n-1になるので、左端の連続するビット1の個数は奇数個である。</t>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サタン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キスウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コラッツパターン2には、左端からの連続するビット1の個数が偶数個のものは存在しない。</t>
+    <rPh sb="12" eb="14">
+      <t>サタン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レンゾクス</t>
+    </rPh>
+    <rPh sb="20" eb="28">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>グウスウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1を追加する前の、左端（最下位）からの連続するビット1の個数をnとおく。</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サタン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>サイカイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1111などの配置はコラッツパターン2には属さないが、属さない配置がコラッツパターン2の遷移で現れる事はない。</t>
+    <rPh sb="7" eb="9">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>k=n-1そしてn</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -846,7 +1014,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:AF102"/>
+  <dimension ref="B3:AF107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2304,239 +2472,313 @@
     </row>
     <row r="55" spans="2:32">
       <c r="B55" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="2:32">
       <c r="B56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="2:32">
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="2:32">
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="2:32">
+      <c r="B61" t="s">
         <v>5</v>
       </c>
-      <c r="AA56" s="1" t="s">
+      <c r="AA61" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="2:32">
-      <c r="E57" s="4">
-        <v>1</v>
-      </c>
-      <c r="F57" s="4">
-        <v>1</v>
-      </c>
-      <c r="G57" s="4">
-        <v>1</v>
-      </c>
-      <c r="H57" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA57" s="1">
+    <row r="62" spans="2:32">
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="2:32">
-      <c r="C58" s="2" t="s">
+    <row r="63" spans="2:32">
+      <c r="C63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="3">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1</v>
-      </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="2:32">
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:32">
-      <c r="C60" s="2" t="s">
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="2:32">
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27">
+      <c r="C65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="3">
-        <v>1</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="2:32">
-      <c r="E61" s="4">
-        <v>1</v>
-      </c>
-      <c r="F61" s="4">
-        <v>1</v>
-      </c>
-      <c r="G61" s="4">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="AA61" s="1">
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="2:27">
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:32">
-      <c r="C62" t="s">
+    <row r="67" spans="2:27">
+      <c r="C67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="6" t="s">
+    <row r="70" spans="2:27">
+      <c r="B70" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
-      <c r="B66" t="s">
+    <row r="71" spans="2:27">
+      <c r="B71" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
-      <c r="B67" t="s">
+    <row r="72" spans="2:27">
+      <c r="B72" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
-      <c r="C68" s="7" t="s">
+    <row r="73" spans="2:27">
+      <c r="C73" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
-      <c r="C69" s="8" t="s">
+    <row r="74" spans="2:27">
+      <c r="C74" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="12"/>
-    </row>
-    <row r="70" spans="2:4">
-      <c r="C70" s="12"/>
-      <c r="D70" s="12" t="s">
+      <c r="D74" s="12"/>
+    </row>
+    <row r="75" spans="2:27">
+      <c r="C75" s="12"/>
+      <c r="D75" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="2:4">
-      <c r="C71" s="12" t="s">
+    <row r="76" spans="2:27">
+      <c r="C76" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D71" s="12"/>
-    </row>
-    <row r="72" spans="2:4">
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74" t="s">
+      <c r="D76" s="12"/>
+    </row>
+    <row r="77" spans="2:27">
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+    </row>
+    <row r="79" spans="2:27">
+      <c r="B79" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="2:4">
-      <c r="B75" t="s">
+    <row r="80" spans="2:27">
+      <c r="B80" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4">
-      <c r="B78" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4">
-      <c r="B79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="B97" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3">
-      <c r="B100" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="2:3">
-      <c r="C102" s="7"/>
+    <row r="107" spans="2:3">
+      <c r="C107" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/collatzProof.xlsx
+++ b/collatzProof.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>以下のような、コラッツ遷移と同等のセルオートマトンを考える。</t>
   </si>
@@ -46,25 +46,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この定理の元で、最小反例cがあると仮定すると、</t>
-    <rPh sb="2" eb="4">
-      <t>テイリ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サイショウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハンレイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全ての値はコラッツ操作で小さくなるので、</t>
     <rPh sb="0" eb="1">
       <t>スベ</t>
@@ -134,13 +115,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【蛇足】</t>
-    <rPh sb="1" eb="3">
-      <t>ダソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>対偶をとって</t>
     <rPh sb="0" eb="2">
       <t>タイグウ</t>
@@ -161,38 +135,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コラッツパターンで初期値より小さくならなければ（ループor無限大）、コラッツパターン2でも初期値より小さくならない</t>
-    <rPh sb="9" eb="12">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>ムゲンダイ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>チイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コラッツパターン2で、ある数が初期値より小さくなれば、コラッツパターンでも、その数は初期値より小さくなる</t>
-    <rPh sb="13" eb="14">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>チイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>奇数は4x+1と4x+3に分かれる。</t>
     <rPh sb="0" eb="2">
       <t>キスウ</t>
@@ -262,22 +204,6 @@
     <t>【定理4】</t>
     <rPh sb="1" eb="3">
       <t>テイリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下の最終的な定理を得る。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>サイシュウテキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>テイリ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>エ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -296,13 +222,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>まとめると以下のようになる。</t>
-    <rPh sb="5" eb="7">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4x+3のうちで、2^n-1は、2ステップ後に小さくなる。</t>
     <rPh sb="21" eb="22">
       <t>ゴ</t>
@@ -342,21 +261,136 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コラッツパターンにおいて、0,1以外の全ての値は初期値より小さくなる。</t>
+    <t>コラッツパターンで反例（ループor無限大）があるなら、コラッツパターン2でも反例がある。</t>
+    <rPh sb="9" eb="11">
+      <t>ハンレイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ムゲンダイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ハンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コラッツパターン2で反例がないなら、コラッツパターンでも反例はない</t>
+    <rPh sb="10" eb="12">
+      <t>ハンレイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コラッツパターン2において、まとめると以下のようになる。</t>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下の定理を得る。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【定理5】</t>
+    <rPh sb="1" eb="3">
+      <t>テイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定理4の元で、最小反例cがあると仮定すると、</t>
+    <rPh sb="0" eb="2">
+      <t>テイリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンレイ</t>
+    </rPh>
     <rPh sb="16" eb="18">
+      <t>カテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コラッツパターン2において、0,1以外の全ての値は初期値より小さくなる。</t>
+    <rPh sb="17" eb="19">
       <t>イガイ</t>
     </rPh>
-    <rPh sb="19" eb="20">
+    <rPh sb="20" eb="21">
       <t>スベ</t>
     </rPh>
-    <rPh sb="22" eb="23">
+    <rPh sb="23" eb="24">
       <t>アタイ</t>
     </rPh>
-    <rPh sb="24" eb="27">
+    <rPh sb="25" eb="28">
       <t>ショキチ</t>
     </rPh>
-    <rPh sb="29" eb="30">
+    <rPh sb="30" eb="31">
       <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よって、コラッツパターン2に反例は存在しない。</t>
+    <rPh sb="14" eb="16">
+      <t>ハンレイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定理1と合わせて、最終的な定理を得る。</t>
+    <rPh sb="0" eb="2">
+      <t>テイリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>サイシュウテキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイリ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【定理6】</t>
+    <rPh sb="1" eb="3">
+      <t>テイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コラッツパターンにも反例は存在しない</t>
+    <rPh sb="10" eb="12">
+      <t>ハンレイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソンザイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1450,7 +1484,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-            <a:t>全ての自然数</a:t>
+            <a:t>全ての正整数</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1467,52 +1501,6 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4EDA2554-7674-458D-B3EE-301F332E6320}" type="sibTrans" cxnId="{955D3D6D-D1CE-417D-8F80-D8BA2B30888D}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{98335B03-7C69-4927-8219-55C2765B8B72}">
-      <dgm:prSet phldrT="[テキスト]"/>
-      <dgm:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </dgm:spPr>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
-            <a:t>0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-            <a:t>は対象外</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{57AB4F97-9C75-4B93-B59D-B0A73E940A9A}" type="parTrans" cxnId="{7FB81245-A11A-4249-B110-826018BB1BB1}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{C8B3F6BB-593D-4A05-B625-688957DF0EA2}" type="sibTrans" cxnId="{7FB81245-A11A-4249-B110-826018BB1BB1}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1926,8 +1914,8 @@
       <dgm:prSet presAssocID="{2E1D1EDC-CF43-45C4-8AA9-8BB48D214463}" presName="level2hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{88474121-54AE-406C-8AD4-224C9212CA67}" type="pres">
-      <dgm:prSet presAssocID="{57AB4F97-9C75-4B93-B59D-B0A73E940A9A}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="3"/>
+    <dgm:pt modelId="{E01FEE18-F1E6-46D0-8B49-FC7F5C828E99}" type="pres">
+      <dgm:prSet presAssocID="{779B1017-F6DD-4ADC-A5A7-D3AD33B5D9EC}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1937,8 +1925,8 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{8D16D232-29C1-4060-AA57-1A69ADC2626A}" type="pres">
-      <dgm:prSet presAssocID="{57AB4F97-9C75-4B93-B59D-B0A73E940A9A}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="3"/>
+    <dgm:pt modelId="{CB7458C1-DDF1-41D6-9C1A-8077423119F2}" type="pres">
+      <dgm:prSet presAssocID="{779B1017-F6DD-4ADC-A5A7-D3AD33B5D9EC}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1948,12 +1936,12 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{93468C99-D54E-405B-B56B-5AE31C4AA180}" type="pres">
-      <dgm:prSet presAssocID="{98335B03-7C69-4927-8219-55C2765B8B72}" presName="root2" presStyleCnt="0"/>
+    <dgm:pt modelId="{5DD135DD-391B-45DF-969B-F41F951177C1}" type="pres">
+      <dgm:prSet presAssocID="{872A8E8C-7E63-4401-8784-06F2F05521C4}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{AFFA83A4-44EA-4E6D-9B27-0EA77BFCA1B5}" type="pres">
-      <dgm:prSet presAssocID="{98335B03-7C69-4927-8219-55C2765B8B72}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="3">
+    <dgm:pt modelId="{FB647E2F-ECF0-4D58-8071-3A9297A05132}" type="pres">
+      <dgm:prSet presAssocID="{872A8E8C-7E63-4401-8784-06F2F05521C4}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="2">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1967,12 +1955,12 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{AE824F10-1F19-4BDC-AE37-7B746DCD2EC3}" type="pres">
-      <dgm:prSet presAssocID="{98335B03-7C69-4927-8219-55C2765B8B72}" presName="level3hierChild" presStyleCnt="0"/>
+    <dgm:pt modelId="{0A839A2C-5EB1-449B-BD60-A06504D9BCE5}" type="pres">
+      <dgm:prSet presAssocID="{872A8E8C-7E63-4401-8784-06F2F05521C4}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{E01FEE18-F1E6-46D0-8B49-FC7F5C828E99}" type="pres">
-      <dgm:prSet presAssocID="{779B1017-F6DD-4ADC-A5A7-D3AD33B5D9EC}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="3"/>
+    <dgm:pt modelId="{051D7400-F8A8-4325-9CFD-C881F8196E13}" type="pres">
+      <dgm:prSet presAssocID="{4CEBCCD3-4FCC-4ED4-8F6F-DBA94814EADE}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1982,8 +1970,8 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{CB7458C1-DDF1-41D6-9C1A-8077423119F2}" type="pres">
-      <dgm:prSet presAssocID="{779B1017-F6DD-4ADC-A5A7-D3AD33B5D9EC}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="3"/>
+    <dgm:pt modelId="{50CB9F41-FB85-49D8-A75C-8CF34A281913}" type="pres">
+      <dgm:prSet presAssocID="{4CEBCCD3-4FCC-4ED4-8F6F-DBA94814EADE}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1993,57 +1981,12 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{5DD135DD-391B-45DF-969B-F41F951177C1}" type="pres">
-      <dgm:prSet presAssocID="{872A8E8C-7E63-4401-8784-06F2F05521C4}" presName="root2" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{FB647E2F-ECF0-4D58-8071-3A9297A05132}" type="pres">
-      <dgm:prSet presAssocID="{872A8E8C-7E63-4401-8784-06F2F05521C4}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="3">
-        <dgm:presLayoutVars>
-          <dgm:chPref val="3"/>
-        </dgm:presLayoutVars>
-      </dgm:prSet>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{0A839A2C-5EB1-449B-BD60-A06504D9BCE5}" type="pres">
-      <dgm:prSet presAssocID="{872A8E8C-7E63-4401-8784-06F2F05521C4}" presName="level3hierChild" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{051D7400-F8A8-4325-9CFD-C881F8196E13}" type="pres">
-      <dgm:prSet presAssocID="{4CEBCCD3-4FCC-4ED4-8F6F-DBA94814EADE}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="3"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{50CB9F41-FB85-49D8-A75C-8CF34A281913}" type="pres">
-      <dgm:prSet presAssocID="{4CEBCCD3-4FCC-4ED4-8F6F-DBA94814EADE}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="3"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
     <dgm:pt modelId="{C9525C45-0E2B-4E1F-A926-CE43DD6C8BC4}" type="pres">
       <dgm:prSet presAssocID="{902268E2-BA98-4310-8486-520A505452F6}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{860F77AC-0E8A-4947-A771-7925F702E24B}" type="pres">
-      <dgm:prSet presAssocID="{902268E2-BA98-4310-8486-520A505452F6}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="3">
+      <dgm:prSet presAssocID="{902268E2-BA98-4310-8486-520A505452F6}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="2">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2345,7 +2288,6 @@
     <dgm:cxn modelId="{AD2A7E0B-5B3E-405B-A762-3950497270A5}" srcId="{902268E2-BA98-4310-8486-520A505452F6}" destId="{ED210E0B-C190-45B3-A5C1-A19123E3A5CE}" srcOrd="2" destOrd="0" parTransId="{40B4BB45-1E10-4065-9BC8-35620D39F421}" sibTransId="{160A0FE7-0F95-4B93-B0BB-AB8F7E609560}"/>
     <dgm:cxn modelId="{9F1CA24A-0EA6-49EF-BFA5-C17A22E8E869}" srcId="{F1E01FD4-E19F-44C1-82F6-878CE762C5BE}" destId="{9A9E1BD1-EFA9-415A-8884-59F418A7A0BB}" srcOrd="0" destOrd="0" parTransId="{583027BF-3294-4E94-94F0-BB27A6DB9936}" sibTransId="{AAEE90E4-2B98-43F0-9F7D-59E5AA29BF32}"/>
     <dgm:cxn modelId="{79529363-BB6C-421A-B91C-46FF6F94531C}" type="presOf" srcId="{779B1017-F6DD-4ADC-A5A7-D3AD33B5D9EC}" destId="{E01FEE18-F1E6-46D0-8B49-FC7F5C828E99}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{FE70F5BA-3D2E-4AD7-838A-2FD6D9C8744D}" type="presOf" srcId="{57AB4F97-9C75-4B93-B59D-B0A73E940A9A}" destId="{8D16D232-29C1-4060-AA57-1A69ADC2626A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{43E25352-CD03-4981-BFDA-84A5ECF979AA}" type="presOf" srcId="{158A179A-3689-4BA1-A805-34BAEF108DBF}" destId="{326E8889-C0DB-4EBB-8169-2801D136CB0D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{C83FA642-77E2-401A-805E-E6918A09C83F}" type="presOf" srcId="{779B1017-F6DD-4ADC-A5A7-D3AD33B5D9EC}" destId="{CB7458C1-DDF1-41D6-9C1A-8077423119F2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{921566F2-D6C2-4A21-8744-146858E039C9}" type="presOf" srcId="{A2630ED6-0A6D-4F37-8B4C-8AA60AA56113}" destId="{BEDCE0A4-597A-43A6-BD8E-387B0C178EF1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -2354,15 +2296,13 @@
     <dgm:cxn modelId="{FEBD7D81-203E-4932-BF44-5B1E3D9EBCFF}" type="presOf" srcId="{4CEBCCD3-4FCC-4ED4-8F6F-DBA94814EADE}" destId="{50CB9F41-FB85-49D8-A75C-8CF34A281913}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{7337B951-B43F-4E4C-8438-08FB3CF589D7}" type="presOf" srcId="{9360B12D-7F2E-457C-B225-5A423C4FBE40}" destId="{5A2E7FE1-66B9-4E59-946C-C495A8F7CF7E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{41462228-7494-4022-A43E-948E804BFB8D}" type="presOf" srcId="{D3215D1F-35CB-48B9-A668-E411461D6FD1}" destId="{95B8C2FF-9838-4057-B6B2-27D62A698D5B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{7A5C078A-9716-4172-8472-EA3A3DE87241}" type="presOf" srcId="{98335B03-7C69-4927-8219-55C2765B8B72}" destId="{AFFA83A4-44EA-4E6D-9B27-0EA77BFCA1B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{6D6FEDE5-A132-4FBD-988A-8184E0C2DEF8}" type="presOf" srcId="{9360B12D-7F2E-457C-B225-5A423C4FBE40}" destId="{2386B43E-A0DF-4182-83D0-BA1A2FE11CA1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{89ED4C21-D961-48CA-B029-00AFF7AC342F}" type="presOf" srcId="{4CEBCCD3-4FCC-4ED4-8F6F-DBA94814EADE}" destId="{051D7400-F8A8-4325-9CFD-C881F8196E13}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{125C5599-C663-4F36-AAD7-39DE26F615BB}" srcId="{2E1D1EDC-CF43-45C4-8AA9-8BB48D214463}" destId="{902268E2-BA98-4310-8486-520A505452F6}" srcOrd="2" destOrd="0" parTransId="{4CEBCCD3-4FCC-4ED4-8F6F-DBA94814EADE}" sibTransId="{C21D5ECD-B71D-4C71-8177-42AA33211C68}"/>
+    <dgm:cxn modelId="{125C5599-C663-4F36-AAD7-39DE26F615BB}" srcId="{2E1D1EDC-CF43-45C4-8AA9-8BB48D214463}" destId="{902268E2-BA98-4310-8486-520A505452F6}" srcOrd="1" destOrd="0" parTransId="{4CEBCCD3-4FCC-4ED4-8F6F-DBA94814EADE}" sibTransId="{C21D5ECD-B71D-4C71-8177-42AA33211C68}"/>
     <dgm:cxn modelId="{EEBADB6A-554B-4CC0-A9CA-D6646F346493}" type="presOf" srcId="{F58A13C1-E44F-4001-9069-E7F230C5654D}" destId="{464C64FC-19A6-4E90-AA4F-DB63D70D7FDD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{7FB81245-A11A-4249-B110-826018BB1BB1}" srcId="{2E1D1EDC-CF43-45C4-8AA9-8BB48D214463}" destId="{98335B03-7C69-4927-8219-55C2765B8B72}" srcOrd="0" destOrd="0" parTransId="{57AB4F97-9C75-4B93-B59D-B0A73E940A9A}" sibTransId="{C8B3F6BB-593D-4A05-B625-688957DF0EA2}"/>
     <dgm:cxn modelId="{438B0BB7-4FD2-4D2F-BAAF-C5B4BF0513CB}" srcId="{902268E2-BA98-4310-8486-520A505452F6}" destId="{A2630ED6-0A6D-4F37-8B4C-8AA60AA56113}" srcOrd="0" destOrd="0" parTransId="{158A179A-3689-4BA1-A805-34BAEF108DBF}" sibTransId="{38C47F56-E534-4AF4-93A0-35991A4E4F1F}"/>
     <dgm:cxn modelId="{A8B6AA1A-26AE-4E56-8003-66F5373585FE}" srcId="{902268E2-BA98-4310-8486-520A505452F6}" destId="{F1E01FD4-E19F-44C1-82F6-878CE762C5BE}" srcOrd="3" destOrd="0" parTransId="{D3215D1F-35CB-48B9-A668-E411461D6FD1}" sibTransId="{686A3451-C770-4C5B-A82E-32D42E12A944}"/>
-    <dgm:cxn modelId="{57CA2C89-B1E6-44A9-A181-E421B7DB497E}" srcId="{2E1D1EDC-CF43-45C4-8AA9-8BB48D214463}" destId="{872A8E8C-7E63-4401-8784-06F2F05521C4}" srcOrd="1" destOrd="0" parTransId="{779B1017-F6DD-4ADC-A5A7-D3AD33B5D9EC}" sibTransId="{BDCC62AD-6895-413A-BEFD-9F20BF89D94C}"/>
+    <dgm:cxn modelId="{57CA2C89-B1E6-44A9-A181-E421B7DB497E}" srcId="{2E1D1EDC-CF43-45C4-8AA9-8BB48D214463}" destId="{872A8E8C-7E63-4401-8784-06F2F05521C4}" srcOrd="0" destOrd="0" parTransId="{779B1017-F6DD-4ADC-A5A7-D3AD33B5D9EC}" sibTransId="{BDCC62AD-6895-413A-BEFD-9F20BF89D94C}"/>
     <dgm:cxn modelId="{9C00A862-C446-417E-9AE4-C53CB3F76B6E}" type="presOf" srcId="{D3215D1F-35CB-48B9-A668-E411461D6FD1}" destId="{645D4485-F149-497C-BB4D-37044ADB8CAD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{1BEE0942-A36F-4D11-8750-1552C81E05C7}" type="presOf" srcId="{99D6C073-78EE-4C27-A318-4B3374AE1B17}" destId="{D79D6E72-5418-4B20-B9E0-459F6C83028D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{FB8E6B48-56E3-4A18-8A58-F0BC2B10E270}" type="presOf" srcId="{158A179A-3689-4BA1-A805-34BAEF108DBF}" destId="{501558D2-0567-4306-8241-191DCF69B6F0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -2370,24 +2310,18 @@
     <dgm:cxn modelId="{8DB91EB5-85EE-48D7-8883-FF31BD79567D}" type="presOf" srcId="{872A8E8C-7E63-4401-8784-06F2F05521C4}" destId="{FB647E2F-ECF0-4D58-8071-3A9297A05132}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{CFB3FCEE-69CF-4338-8B30-FBB146201B8C}" type="presOf" srcId="{F29E76E1-4CA8-4D22-AD6B-D8C2606EDBCB}" destId="{3F7484A5-7CC4-47D6-8347-5B87B5026D11}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{295F187F-CA64-46E3-9DCF-5A2E920DE629}" type="presOf" srcId="{40B4BB45-1E10-4065-9BC8-35620D39F421}" destId="{44DB03AE-ADDE-4A4F-A0C3-45C3BE366496}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{CCE4F811-6050-4DF1-B89D-E58354F66E7E}" type="presOf" srcId="{57AB4F97-9C75-4B93-B59D-B0A73E940A9A}" destId="{88474121-54AE-406C-8AD4-224C9212CA67}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{41403595-A8CB-44CC-B392-F2D74D1FCB26}" type="presOf" srcId="{2E1D1EDC-CF43-45C4-8AA9-8BB48D214463}" destId="{961A8D67-75F2-44C3-989F-F78591DF2220}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{6030A488-48C5-4489-A2C3-A80362985AA1}" type="presParOf" srcId="{D79D6E72-5418-4B20-B9E0-459F6C83028D}" destId="{ACC41364-01B7-4547-BEEC-30DA767FCB62}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{60D1B99A-3EBB-4D28-B358-605FC1517781}" type="presParOf" srcId="{ACC41364-01B7-4547-BEEC-30DA767FCB62}" destId="{961A8D67-75F2-44C3-989F-F78591DF2220}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{E451AB7D-B686-4D00-86D9-9E53FFDBEA8C}" type="presParOf" srcId="{ACC41364-01B7-4547-BEEC-30DA767FCB62}" destId="{DD9F54A0-2A74-485D-8EC2-59EB346FBA6B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{8C0D1D32-A271-4DD3-944F-E55428218DBA}" type="presParOf" srcId="{DD9F54A0-2A74-485D-8EC2-59EB346FBA6B}" destId="{88474121-54AE-406C-8AD4-224C9212CA67}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{695F66E7-79D0-4907-8590-F0B2358C6AF7}" type="presParOf" srcId="{88474121-54AE-406C-8AD4-224C9212CA67}" destId="{8D16D232-29C1-4060-AA57-1A69ADC2626A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{F37714B8-2D2E-4002-939C-9EE537081E21}" type="presParOf" srcId="{DD9F54A0-2A74-485D-8EC2-59EB346FBA6B}" destId="{93468C99-D54E-405B-B56B-5AE31C4AA180}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{6B34B0B0-3B5A-4C6F-8852-854159AC7B91}" type="presParOf" srcId="{93468C99-D54E-405B-B56B-5AE31C4AA180}" destId="{AFFA83A4-44EA-4E6D-9B27-0EA77BFCA1B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{2089E470-26CB-4658-80CF-6CFE9574E784}" type="presParOf" srcId="{93468C99-D54E-405B-B56B-5AE31C4AA180}" destId="{AE824F10-1F19-4BDC-AE37-7B746DCD2EC3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{1CC61133-0BD1-4A45-8898-F1DBA080306D}" type="presParOf" srcId="{DD9F54A0-2A74-485D-8EC2-59EB346FBA6B}" destId="{E01FEE18-F1E6-46D0-8B49-FC7F5C828E99}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1CC61133-0BD1-4A45-8898-F1DBA080306D}" type="presParOf" srcId="{DD9F54A0-2A74-485D-8EC2-59EB346FBA6B}" destId="{E01FEE18-F1E6-46D0-8B49-FC7F5C828E99}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{49584E11-22F9-4571-95B5-526C58E5AA82}" type="presParOf" srcId="{E01FEE18-F1E6-46D0-8B49-FC7F5C828E99}" destId="{CB7458C1-DDF1-41D6-9C1A-8077423119F2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{F894E1D3-FD19-4ED8-8CE0-43EEDE59342E}" type="presParOf" srcId="{DD9F54A0-2A74-485D-8EC2-59EB346FBA6B}" destId="{5DD135DD-391B-45DF-969B-F41F951177C1}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F894E1D3-FD19-4ED8-8CE0-43EEDE59342E}" type="presParOf" srcId="{DD9F54A0-2A74-485D-8EC2-59EB346FBA6B}" destId="{5DD135DD-391B-45DF-969B-F41F951177C1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{001CF001-92F4-443A-B1C4-78687502C516}" type="presParOf" srcId="{5DD135DD-391B-45DF-969B-F41F951177C1}" destId="{FB647E2F-ECF0-4D58-8071-3A9297A05132}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{3B213A40-A3B4-454A-978E-59F34CAEF6A4}" type="presParOf" srcId="{5DD135DD-391B-45DF-969B-F41F951177C1}" destId="{0A839A2C-5EB1-449B-BD60-A06504D9BCE5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{DB068774-175B-4648-A85A-2876D938E219}" type="presParOf" srcId="{DD9F54A0-2A74-485D-8EC2-59EB346FBA6B}" destId="{051D7400-F8A8-4325-9CFD-C881F8196E13}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DB068774-175B-4648-A85A-2876D938E219}" type="presParOf" srcId="{DD9F54A0-2A74-485D-8EC2-59EB346FBA6B}" destId="{051D7400-F8A8-4325-9CFD-C881F8196E13}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{C38C0568-2CA0-4836-BCEF-7D7946EE5D3B}" type="presParOf" srcId="{051D7400-F8A8-4325-9CFD-C881F8196E13}" destId="{50CB9F41-FB85-49D8-A75C-8CF34A281913}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{A6E709A7-FE81-4333-849A-BF459E3EA577}" type="presParOf" srcId="{DD9F54A0-2A74-485D-8EC2-59EB346FBA6B}" destId="{C9525C45-0E2B-4E1F-A926-CE43DD6C8BC4}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A6E709A7-FE81-4333-849A-BF459E3EA577}" type="presParOf" srcId="{DD9F54A0-2A74-485D-8EC2-59EB346FBA6B}" destId="{C9525C45-0E2B-4E1F-A926-CE43DD6C8BC4}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{CC2D7101-34B2-4712-AD94-3A37E049FAE7}" type="presParOf" srcId="{C9525C45-0E2B-4E1F-A926-CE43DD6C8BC4}" destId="{860F77AC-0E8A-4947-A771-7925F702E24B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{7B296CF0-9E3A-4239-AE89-FBAFD1E1D153}" type="presParOf" srcId="{C9525C45-0E2B-4E1F-A926-CE43DD6C8BC4}" destId="{98B07FBC-2375-4A64-9A7C-0476965BF767}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{1CFD8441-11A8-4B82-8F7E-5F34CF5E1D2A}" type="presParOf" srcId="{98B07FBC-2375-4A64-9A7C-0476965BF767}" destId="{326E8889-C0DB-4EBB-8169-2801D136CB0D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -4407,7 +4341,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:AI119"/>
+  <dimension ref="B3:AI124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5289,12 +5223,12 @@
     </row>
     <row r="30" spans="2:32">
       <c r="B30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="2:32">
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="2:32" ht="14.25" thickBot="1">
@@ -5518,7 +5452,7 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AA36" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB36" s="4"/>
       <c r="AF36" s="1"/>
@@ -5574,7 +5508,7 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AB37" s="4"/>
       <c r="AF37" s="1"/>
@@ -6253,52 +6187,52 @@
     </row>
     <row r="54" spans="2:32">
       <c r="B54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="2:32">
       <c r="B55" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="2:32">
       <c r="B56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="2:32">
       <c r="B57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="2:32">
       <c r="B58" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="2:32">
       <c r="B61" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="2:32">
       <c r="B62" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="2:32">
       <c r="B63" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="2:35">
       <c r="B65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="2:35">
       <c r="B66" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="2:35" ht="14.25" thickBot="1"/>
@@ -6484,12 +6418,12 @@
     </row>
     <row r="75" spans="2:35">
       <c r="B75" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="2:35">
       <c r="B76" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="2:35" ht="14.25" thickBot="1"/>
@@ -6677,17 +6611,17 @@
     </row>
     <row r="86" spans="2:32">
       <c r="B86" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="2:32">
       <c r="B87" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="2:32">
       <c r="C88" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="2:32">
@@ -6697,12 +6631,12 @@
     </row>
     <row r="111" spans="2:3">
       <c r="C111" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="2:3">
       <c r="B112" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="2:3">
@@ -6715,22 +6649,42 @@
     </row>
     <row r="116" spans="2:3">
       <c r="B116" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="2:3">
       <c r="B117" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118" spans="2:3">
       <c r="B118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="2:3">
       <c r="B119" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="C122" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
